--- a/平成27年度 卒業制作-backup01/定義文書/進捗管理.xlsx
+++ b/平成27年度 卒業制作-backup01/定義文書/進捗管理.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14180" windowHeight="9830"/>
   </bookViews>
   <sheets>
     <sheet name="進捗管理" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
   <si>
     <t>subcategory</t>
     <phoneticPr fontId="1"/>
@@ -189,13 +189,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>修正</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>結合テスト</t>
     <rPh sb="0" eb="2">
       <t>ケツゴウ</t>
@@ -207,26 +200,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>categoryINSERT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LogIn,LogOut</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>productINSERT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ShowProductDetail</t>
   </si>
   <si>
     <t>Payment</t>
-  </si>
-  <si>
-    <t>Favoriteの</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>EditAccountInfomation</t>
@@ -451,6 +432,82 @@
     <rPh sb="15" eb="17">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>session管理</t>
+    <rPh sb="7" eb="9">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>image等INSERT</t>
+    <rPh sb="5" eb="6">
+      <t>ナド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cart修正</t>
+    <rPh sb="4" eb="6">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>GitHub</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ShowPurchaseHistory</t>
+  </si>
+  <si>
+    <t>Favorite関係</t>
+    <rPh sb="8" eb="10">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>注文表</t>
+    <rPh sb="0" eb="2">
+      <t>チュウモン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サ－バー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーバーやり直し</t>
+    <rPh sb="6" eb="7">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML・JSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LogOut</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OtherCommand</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>property</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -475,7 +532,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,8 +575,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -559,8 +628,62 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
     <border diagonalUp="1">
       <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right/>
@@ -570,12 +693,29 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
+      <diagonal/>
+    </border>
+    <border diagonalUp="1">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="hair">
         <color indexed="64"/>
       </diagonal>
     </border>
     <border diagonalUp="1">
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -585,7 +725,24 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="thin">
+      <diagonal style="hair">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border diagonalUp="1">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="hair">
         <color indexed="64"/>
       </diagonal>
     </border>
@@ -595,7 +752,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -644,10 +801,88 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -656,6 +891,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -930,15 +1170,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AB20"/>
+  <dimension ref="B1:AB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6328125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="E1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="M1" s="20"/>
+    </row>
     <row r="2" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
       <c r="C2" s="1">
@@ -947,34 +1195,34 @@
       <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="21">
         <v>3</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="17">
         <v>4</v>
       </c>
       <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="21">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="17">
         <v>7</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="21">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="17">
         <v>9</v>
       </c>
       <c r="L2" s="1">
         <v>10</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2" s="21">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="17">
         <v>12</v>
       </c>
       <c r="O2" s="1">
@@ -1026,16 +1274,16 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="17"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="17"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="17"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
@@ -1059,20 +1307,22 @@
         <v>26</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="17"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -1095,19 +1345,23 @@
       <c r="C5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="23"/>
+      <c r="F5" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="31"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="18" t="s">
+        <v>67</v>
+      </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="17"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
@@ -1130,17 +1384,25 @@
       <c r="C6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="D6" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="17"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1162,16 +1424,18 @@
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="17"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1183,7 +1447,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z7" s="9"/>
       <c r="AA7" s="9"/>
@@ -1197,16 +1461,16 @@
         <v>17</v>
       </c>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="17"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1230,20 +1494,20 @@
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E9" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="19"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="13"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="17"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1264,21 +1528,23 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="34"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="17"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1302,18 +1568,20 @@
         <v>16</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="34"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="17"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
@@ -1337,20 +1605,18 @@
         <v>15</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="17"/>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
@@ -1366,6 +1632,26 @@
       <c r="AA12" s="9"/>
       <c r="AB12" s="9"/>
     </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="E13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="M13" s="20"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="E14" s="27">
+        <v>42761</v>
+      </c>
+      <c r="H14" s="27">
+        <v>42766</v>
+      </c>
+      <c r="J14" s="27">
+        <v>42767</v>
+      </c>
+      <c r="M14" s="27">
+        <v>42768</v>
+      </c>
+    </row>
     <row r="15" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C15" s="15" t="s">
         <v>24</v>
@@ -1393,7 +1679,17 @@
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" s="30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" s="33" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1715,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1427,7 +1723,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1435,7 +1731,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1443,7 +1739,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -1451,7 +1747,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,65 +1755,65 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
